--- a/data/trans_dic/P0902-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P0902-Edad-trans_dic.xlsx
@@ -708,38 +708,38 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01171336933048125</v>
+        <v>0.01126304678505217</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01621883760062736</v>
+        <v>0.01494812228535382</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.007101941314466796</v>
+        <v>0.007076226901501097</v>
       </c>
       <c r="F5" s="5" t="inlineStr"/>
       <c r="G5" s="5" t="n">
-        <v>0.02644573684314986</v>
+        <v>0.02729230321890973</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.02562681279419345</v>
+        <v>0.02748858967373712</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01658135535029399</v>
+        <v>0.01602766246684352</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.02314402196660233</v>
+        <v>0.02247994298099056</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.02380788565124432</v>
+        <v>0.02216899260469091</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.02427314103275217</v>
+        <v>0.02517589307521335</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.0143212266256959</v>
+        <v>0.01452395921348578</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.009846384325187944</v>
+        <v>0.01063324005259116</v>
       </c>
     </row>
     <row r="6">
@@ -750,38 +750,38 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.03816427526068172</v>
+        <v>0.03941964354568096</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.04763360817471059</v>
+        <v>0.04394929035827633</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.03620907653765389</v>
+        <v>0.03769915298555406</v>
       </c>
       <c r="F6" s="5" t="inlineStr"/>
       <c r="G6" s="5" t="n">
-        <v>0.06548667573654156</v>
+        <v>0.06592281952463093</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.06665667452802068</v>
+        <v>0.06813696914349238</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.05195951124022432</v>
+        <v>0.04921789369238042</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1055498592761214</v>
+        <v>0.09368503566373573</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.04515238136725543</v>
+        <v>0.04575000086235545</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.0489277990124567</v>
+        <v>0.04958861052162405</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.0361184604400142</v>
+        <v>0.03785313554579356</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.04392316332189696</v>
+        <v>0.04597286508991192</v>
       </c>
     </row>
     <row r="7">
@@ -817,7 +817,7 @@
         <v>0.0526499669172719</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.0511518797783223</v>
+        <v>0.05115187977832229</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.04589908951054716</v>
@@ -829,7 +829,7 @@
         <v>0.04354176595248169</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.05899250674448289</v>
+        <v>0.05899250674448288</v>
       </c>
     </row>
     <row r="8">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01497237949259289</v>
+        <v>0.0155650703875784</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02117652593125537</v>
+        <v>0.01940986504262792</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02155806225102063</v>
+        <v>0.02208969534268423</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.04239300186359234</v>
+        <v>0.04189934597410115</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.052544100313382</v>
+        <v>0.04997843659111342</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.03448015606831027</v>
+        <v>0.03276903301113149</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.03532263357501333</v>
+        <v>0.03570234984842262</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.03292312556991268</v>
+        <v>0.03342349294420612</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.03459319281963222</v>
+        <v>0.03566506805927996</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.03016783328296063</v>
+        <v>0.02980111015566276</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.03226206580267468</v>
+        <v>0.03252922644273799</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.04367116833274732</v>
+        <v>0.04255914368260531</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.04083087751277453</v>
+        <v>0.0403037270596416</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05007079359326483</v>
+        <v>0.04820455003894578</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.0537847758893398</v>
+        <v>0.05395741763110307</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.09790841864332157</v>
+        <v>0.09963755285539329</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.09444814127893865</v>
+        <v>0.09272905037534931</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.07278303705574522</v>
+        <v>0.06967890895063653</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.07132368431486108</v>
+        <v>0.0751090569099007</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.07571547371925468</v>
+        <v>0.0747043695560012</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.05724861652149684</v>
+        <v>0.05993182293467773</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.05353634975072908</v>
+        <v>0.0541192329665102</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.05715132163630979</v>
+        <v>0.05770032061502758</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.07745072383147722</v>
+        <v>0.07785508852861138</v>
       </c>
     </row>
     <row r="10">
@@ -965,7 +965,7 @@
         <v>0.05870677449968052</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.08039417264944929</v>
+        <v>0.0803941726494493</v>
       </c>
     </row>
     <row r="11">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.03049292366484447</v>
+        <v>0.03203664944581441</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.04532219980396798</v>
+        <v>0.04493810958359583</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02715800647800526</v>
+        <v>0.02785700184185045</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.04292918499448639</v>
+        <v>0.04256203737732544</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.06494516894868368</v>
+        <v>0.06427587850778667</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.09009005957212932</v>
+        <v>0.08947851818975618</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.05744309892905797</v>
+        <v>0.05730787142647549</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.081515408907206</v>
+        <v>0.07993998914364182</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.05449892700930554</v>
+        <v>0.05292930841741628</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.0741988805724936</v>
+        <v>0.07327554086001963</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.04739196683057999</v>
+        <v>0.0477175000093323</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.06711578662489885</v>
+        <v>0.06723711480394014</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.06313921881639702</v>
+        <v>0.06592772636550052</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.08255726808481156</v>
+        <v>0.08492446982391255</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.05856127911220262</v>
+        <v>0.06006052360724781</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.08476534099078413</v>
+        <v>0.08350246462089744</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1070666757380775</v>
+        <v>0.1090610858396691</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1398431768426938</v>
+        <v>0.1380262933499176</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.0999226068662335</v>
+        <v>0.0987844919974406</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1213562607616915</v>
+        <v>0.1210812453854796</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.08146703052565669</v>
+        <v>0.08028256187524904</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1055624117993407</v>
+        <v>0.1049190263939919</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.07313280335336836</v>
+        <v>0.07333224264915995</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.09582771975445095</v>
+        <v>0.09723961325636432</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.04808092444878741</v>
+        <v>0.04748072536410098</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.05815598402858371</v>
+        <v>0.05986518002007463</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.06864930385426296</v>
+        <v>0.07071044339970373</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1063673291421945</v>
+        <v>0.1046390258700591</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1000109290082793</v>
+        <v>0.1006845274573462</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1245860303555944</v>
+        <v>0.1273092334713824</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.09996992196090554</v>
+        <v>0.09882598171198487</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1266779023212148</v>
+        <v>0.127417500402401</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.08040172865018257</v>
+        <v>0.07921340018133169</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.09925257214969897</v>
+        <v>0.09813094693803991</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.09117367895345191</v>
+        <v>0.09150001143986315</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1222071714727163</v>
+        <v>0.1217166738302933</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.0933250408376556</v>
+        <v>0.09173610595020891</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1050122480288618</v>
+        <v>0.1043796894720131</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1170456852912894</v>
+        <v>0.1209312212313395</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1595427715638028</v>
+        <v>0.1616156509547227</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1612663947129871</v>
+        <v>0.1593550057562204</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1853935968733191</v>
+        <v>0.1905180629034037</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1538816543060669</v>
+        <v>0.1523313546254585</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1703498154522338</v>
+        <v>0.1672145522700071</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1172461531604363</v>
+        <v>0.1180004631591886</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1382500250287984</v>
+        <v>0.1373926055365901</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1274180818909457</v>
+        <v>0.1266015919376785</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1574128772496218</v>
+        <v>0.1552964743343449</v>
       </c>
     </row>
     <row r="16">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1040816227694103</v>
+        <v>0.1036599537577227</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1228369577716136</v>
+        <v>0.1238804767611706</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.09032477216377145</v>
+        <v>0.09042818328368202</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1533702687091248</v>
+        <v>0.155536309662009</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1209630087779299</v>
+        <v>0.1183978337851147</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2335138820939845</v>
+        <v>0.2335712397750419</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1945257614841556</v>
+        <v>0.1964861110891487</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2061160017270074</v>
+        <v>0.2056538259273707</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1238232549344113</v>
+        <v>0.1232553374322667</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1901172678534122</v>
+        <v>0.1911104278212097</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1539046246835713</v>
+        <v>0.1523123015751201</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.185284886400899</v>
+        <v>0.1862505990196819</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1721502217165489</v>
+        <v>0.1700085861248401</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.192927798827897</v>
+        <v>0.1904491924647861</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1563160615007448</v>
+        <v>0.1567861963069598</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2172400942578953</v>
+        <v>0.2179519183444331</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1956412743485569</v>
+        <v>0.1965670868477329</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3189246224902104</v>
+        <v>0.3202783468004788</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2776199296424288</v>
+        <v>0.2791076456797892</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2601357250062042</v>
+        <v>0.2568739911974286</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1738764788033006</v>
+        <v>0.1723307509919937</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2475036439550748</v>
+        <v>0.24915107335817</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2057271828164345</v>
+        <v>0.2045014485574835</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2294666322278454</v>
+        <v>0.227702170194094</v>
       </c>
     </row>
     <row r="19">
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.123917621239754</v>
+        <v>0.1235738088380643</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1888291580816373</v>
+        <v>0.187951513313397</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1249052069969188</v>
+        <v>0.1283294558953776</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1348075933922322</v>
+        <v>0.1350283222761152</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2522607445129458</v>
+        <v>0.2518912088209457</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.3205904223549482</v>
+        <v>0.3188915321086102</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.2772591565874512</v>
+        <v>0.2738684390759185</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.2507036292408379</v>
+        <v>0.2536585739926456</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.2072795512101134</v>
+        <v>0.2053139750964833</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.2663732112482074</v>
+        <v>0.2725051488971741</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.2181888058188125</v>
+        <v>0.2178808286107183</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.2055224330368308</v>
+        <v>0.2030282347726607</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2067482787932212</v>
+        <v>0.2066583687261748</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.2929075952005971</v>
+        <v>0.2925405638959408</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.2109751148399148</v>
+        <v>0.2087875274743441</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1957145319102905</v>
+        <v>0.1957877145451586</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.3401203513376778</v>
+        <v>0.3430602767483292</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.4187117433687437</v>
+        <v>0.4276611184299573</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.3751327233668824</v>
+        <v>0.370231451795328</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.3156797246753534</v>
+        <v>0.3174375108544301</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.2677031998176133</v>
+        <v>0.2670206446381637</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.3449741580186874</v>
+        <v>0.3448342350241518</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.2841258991293277</v>
+        <v>0.2893200035800344</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.2497118990497839</v>
+        <v>0.2467620050918445</v>
       </c>
     </row>
     <row r="22">
@@ -1497,7 +1497,7 @@
         <v>0.5395441370674524</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.551003229307221</v>
+        <v>0.5510032293072208</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.3938028799284118</v>
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.2798795457351559</v>
+        <v>0.2817824835775333</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.3764511460477099</v>
+        <v>0.3800047918022688</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2784903012986638</v>
+        <v>0.2785288415767186</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2854915045092432</v>
+        <v>0.2807352973368488</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.3653453965296731</v>
+        <v>0.3713525090354017</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.5469150763897925</v>
+        <v>0.5468597020720963</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.4820491721691199</v>
+        <v>0.4815165367490531</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.5165270388424009</v>
+        <v>0.5181847490269006</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.3529748427617483</v>
+        <v>0.3545976110026608</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.4960781057828774</v>
+        <v>0.4944933625578827</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.4174664796942762</v>
+        <v>0.4170505881914372</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.4324422581022004</v>
+        <v>0.4348253178898205</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.4097229793470878</v>
+        <v>0.4034580247445303</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.5104551962031586</v>
+        <v>0.5083923462980569</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3840843324372864</v>
+        <v>0.3904051504123698</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3711268195888897</v>
+        <v>0.3723002762150779</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.4844522442260208</v>
+        <v>0.4802202351212647</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.6443308484950276</v>
+        <v>0.6516603454976452</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.5958895640948692</v>
+        <v>0.5937323093213664</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.5855374939580726</v>
+        <v>0.5862072055381666</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.4388774419213423</v>
+        <v>0.4381544173835624</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.5798289537789388</v>
+        <v>0.5808008744840929</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.4985866507342995</v>
+        <v>0.5018056117801063</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.4884058733405444</v>
+        <v>0.4899073435949436</v>
       </c>
     </row>
     <row r="25">
@@ -1656,40 +1656,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.0722116170627532</v>
+        <v>0.07125861352706866</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.09849274325348616</v>
+        <v>0.09894960269887848</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.08239111143763561</v>
+        <v>0.08173079213719625</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.114139292084899</v>
+        <v>0.1133629790276453</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.1336954076318706</v>
+        <v>0.1355410033041544</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.1877240959877323</v>
+        <v>0.1861066158704865</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.1632946993012803</v>
+        <v>0.1644571637175529</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.1859135352263089</v>
+        <v>0.1862220758199327</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.1066149283771311</v>
+        <v>0.1068637554077966</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.1468464836656466</v>
+        <v>0.1468240236114814</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.1271677465372974</v>
+        <v>0.1272847776515448</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.1545480778478216</v>
+        <v>0.1539307313318631</v>
       </c>
     </row>
     <row r="27">
@@ -1700,40 +1700,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.09180680694019218</v>
+        <v>0.09064470691812312</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.1214023683195498</v>
+        <v>0.121140322118327</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1012864138932084</v>
+        <v>0.1017971627097236</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.1355439976204805</v>
+        <v>0.1358335931707598</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.158173292165208</v>
+        <v>0.1601318938960184</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.214035376244288</v>
+        <v>0.2131996717722293</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.1906580238612462</v>
+        <v>0.1917950354221123</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.2062855535017477</v>
+        <v>0.2083180777231591</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.1222099308664998</v>
+        <v>0.1224697837226158</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.164971292363422</v>
+        <v>0.1646585147154178</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.14459346950129</v>
+        <v>0.1443587801942836</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.169797006110402</v>
+        <v>0.1695550106056338</v>
       </c>
     </row>
     <row r="28">
@@ -2007,38 +2007,38 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>5787</v>
+        <v>5565</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>7366</v>
+        <v>6789</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>2979</v>
+        <v>2968</v>
       </c>
       <c r="F6" s="6" t="inlineStr"/>
       <c r="G6" s="6" t="n">
-        <v>12363</v>
+        <v>12759</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>11025</v>
+        <v>11826</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>6562</v>
+        <v>6343</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>8390</v>
+        <v>8149</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>22893</v>
+        <v>21317</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>21467</v>
+        <v>22265</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>11675</v>
+        <v>11840</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>7585</v>
+        <v>8191</v>
       </c>
     </row>
     <row r="7">
@@ -2049,38 +2049,38 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>18856</v>
+        <v>19476</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>21633</v>
+        <v>19959</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>15188</v>
+        <v>15813</v>
       </c>
       <c r="F7" s="6" t="inlineStr"/>
       <c r="G7" s="6" t="n">
-        <v>30614</v>
+        <v>30818</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>28678</v>
+        <v>29315</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>20563</v>
+        <v>19478</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>38263</v>
+        <v>33962</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>43416</v>
+        <v>43991</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>43271</v>
+        <v>43855</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>29444</v>
+        <v>30859</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>33834</v>
+        <v>35413</v>
       </c>
     </row>
     <row r="8">
@@ -2183,40 +2183,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>11012</v>
+        <v>11448</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>14531</v>
+        <v>13318</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>12730</v>
+        <v>13044</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>20217</v>
+        <v>19981</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>32866</v>
+        <v>31261</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>21005</v>
+        <v>19963</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>19906</v>
+        <v>20120</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>16478</v>
+        <v>16729</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>47081</v>
+        <v>48540</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>39078</v>
+        <v>38603</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>37232</v>
+        <v>37540</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>42684</v>
+        <v>41597</v>
       </c>
     </row>
     <row r="11">
@@ -2227,40 +2227,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>30031</v>
+        <v>29643</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>34357</v>
+        <v>33076</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>31760</v>
+        <v>31862</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>46692</v>
+        <v>47516</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>59077</v>
+        <v>58001</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>44339</v>
+        <v>42448</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>40194</v>
+        <v>42327</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>37896</v>
+        <v>37390</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>77914</v>
+        <v>81566</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>69349</v>
+        <v>70104</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>65955</v>
+        <v>66588</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>75700</v>
+        <v>76095</v>
       </c>
     </row>
     <row r="12">
@@ -2363,40 +2363,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>19475</v>
+        <v>20461</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>30904</v>
+        <v>30642</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>18171</v>
+        <v>18639</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>26652</v>
+        <v>26424</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>44796</v>
+        <v>44334</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>63953</v>
+        <v>63519</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>37992</v>
+        <v>37903</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>50714</v>
+        <v>49734</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>72397</v>
+        <v>70312</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>103266</v>
+        <v>101981</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>63054</v>
+        <v>63487</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>83423</v>
+        <v>83574</v>
       </c>
     </row>
     <row r="15">
@@ -2407,40 +2407,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>40325</v>
+        <v>42106</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>56293</v>
+        <v>57907</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>39183</v>
+        <v>40186</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>52625</v>
+        <v>51841</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>73849</v>
+        <v>75224</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>99272</v>
+        <v>97982</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>66087</v>
+        <v>65335</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>75500</v>
+        <v>75329</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>108222</v>
+        <v>106648</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>146916</v>
+        <v>146020</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>97302</v>
+        <v>97567</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>119112</v>
+        <v>120867</v>
       </c>
     </row>
     <row r="16">
@@ -2543,40 +2543,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>24961</v>
+        <v>24649</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>35744</v>
+        <v>36794</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>44351</v>
+        <v>45682</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>74405</v>
+        <v>73196</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>51570</v>
+        <v>51917</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>76770</v>
+        <v>78448</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>64888</v>
+        <v>64146</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>93266</v>
+        <v>93810</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>83199</v>
+        <v>81969</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>122162</v>
+        <v>120781</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>118081</v>
+        <v>118504</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>175460</v>
+        <v>174755</v>
       </c>
     </row>
     <row r="19">
@@ -2587,40 +2587,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>48449</v>
+        <v>47625</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>64542</v>
+        <v>64154</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>75617</v>
+        <v>78127</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>111602</v>
+        <v>113052</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>83156</v>
+        <v>82170</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>114239</v>
+        <v>117397</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>99881</v>
+        <v>98875</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>125419</v>
+        <v>123111</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>121325</v>
+        <v>122106</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>170160</v>
+        <v>169105</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>165022</v>
+        <v>163965</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>226006</v>
+        <v>222968</v>
       </c>
     </row>
     <row r="20">
@@ -2723,40 +2723,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>40249</v>
+        <v>40086</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>52750</v>
+        <v>53198</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>43168</v>
+        <v>43217</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>93456</v>
+        <v>94775</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>48867</v>
+        <v>47831</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>104121</v>
+        <v>104147</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>96650</v>
+        <v>97624</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>125495</v>
+        <v>125213</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>97907</v>
+        <v>97458</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>166413</v>
+        <v>167282</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>150021</v>
+        <v>148469</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>225714</v>
+        <v>226891</v>
       </c>
     </row>
     <row r="23">
@@ -2767,40 +2767,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>66572</v>
+        <v>65744</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>82849</v>
+        <v>81784</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>74706</v>
+        <v>74931</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>132374</v>
+        <v>132808</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>79036</v>
+        <v>79410</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>142205</v>
+        <v>142808</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>137935</v>
+        <v>138674</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>158385</v>
+        <v>156399</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>137483</v>
+        <v>136261</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>216644</v>
+        <v>218086</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>200536</v>
+        <v>199341</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>279537</v>
+        <v>277387</v>
       </c>
     </row>
     <row r="24">
@@ -2903,40 +2903,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>36256</v>
+        <v>36156</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>58497</v>
+        <v>58225</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>41760</v>
+        <v>42904</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>54663</v>
+        <v>54753</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>86509</v>
+        <v>86382</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>113488</v>
+        <v>112886</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>104738</v>
+        <v>103457</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>110101</v>
+        <v>111398</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>131730</v>
+        <v>130481</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>176814</v>
+        <v>180884</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>155371</v>
+        <v>155151</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>173596</v>
+        <v>171489</v>
       </c>
     </row>
     <row r="27">
@@ -2947,40 +2947,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>60491</v>
+        <v>60465</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>90739</v>
+        <v>90625</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>70535</v>
+        <v>69804</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>79360</v>
+        <v>79390</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>116639</v>
+        <v>117647</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>148222</v>
+        <v>151390</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>141711</v>
+        <v>139859</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>138636</v>
+        <v>139408</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>170130</v>
+        <v>169696</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>228988</v>
+        <v>228895</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>202324</v>
+        <v>206022</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>210921</v>
+        <v>208429</v>
       </c>
     </row>
     <row r="28">
@@ -3083,40 +3083,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>58742</v>
+        <v>59141</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>94057</v>
+        <v>94945</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>71571</v>
+        <v>71581</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>88418</v>
+        <v>86945</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>121992</v>
+        <v>123998</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>212738</v>
+        <v>212717</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>192901</v>
+        <v>192688</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>239742</v>
+        <v>240512</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>191945</v>
+        <v>192827</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>316910</v>
+        <v>315897</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>274345</v>
+        <v>274072</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>334645</v>
+        <v>336489</v>
       </c>
     </row>
     <row r="31">
@@ -3127,40 +3127,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>85994</v>
+        <v>84679</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>127538</v>
+        <v>127022</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>98709</v>
+        <v>100333</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>114940</v>
+        <v>115304</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>161762</v>
+        <v>160349</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>250631</v>
+        <v>253482</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>238457</v>
+        <v>237593</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>271773</v>
+        <v>272084</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>238658</v>
+        <v>238264</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>370412</v>
+        <v>371033</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>327655</v>
+        <v>329770</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>377952</v>
+        <v>379114</v>
       </c>
     </row>
     <row r="32">
@@ -3263,40 +3263,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>236604</v>
+        <v>233482</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>337422</v>
+        <v>338987</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>279664</v>
+        <v>277423</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>402863</v>
+        <v>400123</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>451783</v>
+        <v>458020</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>667240</v>
+        <v>661490</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>578805</v>
+        <v>582925</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>694120</v>
+        <v>695272</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>709601</v>
+        <v>711257</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>1025021</v>
+        <v>1024864</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>882403</v>
+        <v>883215</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>1122504</v>
+        <v>1118020</v>
       </c>
     </row>
     <row r="35">
@@ -3307,40 +3307,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>300809</v>
+        <v>297001</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>415907</v>
+        <v>415010</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>343802</v>
+        <v>345535</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>478413</v>
+        <v>479435</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>534499</v>
+        <v>541117</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>760759</v>
+        <v>757789</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>675795</v>
+        <v>679826</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>770180</v>
+        <v>777769</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>813398</v>
+        <v>815127</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>1151536</v>
+        <v>1149353</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>1003318</v>
+        <v>1001690</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>1233259</v>
+        <v>1231502</v>
       </c>
     </row>
     <row r="36">
